--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raufp\Desktop\School\ProjectEmbedded\Workshop-IOT-RPI-2022-23\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5B9B47-C6A1-45FE-8D28-858D7E43131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2409B7-72FB-42A2-A077-6E3C69829039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{586D246B-09C9-41AC-BF81-1593AEFBAA71}"/>
   </bookViews>
@@ -35,12 +35,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>DHT-11</t>
+  </si>
+  <si>
+    <t>4.7k ohm</t>
+  </si>
+  <si>
+    <t>G5PZ-1A-E 5VDC</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>https://www.gotron.be/ldr-photoresistor-100mw-50-160kohm.html</t>
+  </si>
+  <si>
+    <t>https://www.gotron.be/8-bit-adc-converter-with-serial-control.html?gclid=CjwKCAjw79iaBhAJEiwAPYwoCLWCTqcdT3dClwdzuin4MIdrPvn4DQg3hyETrE1SUpddLzwZSJvRzRoCZ3gQAvD_BwE</t>
+  </si>
+  <si>
+    <t>8-bit ADC</t>
+  </si>
+  <si>
+    <t>Hebben we</t>
+  </si>
+  <si>
+    <t>DYP-ME003</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +103,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,12 +425,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED99C29-B4FE-4D84-B5A0-514B4AA5A6C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{32F0A83D-F601-48D9-ACEC-69B23BFF3B1A}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{464E2D44-A912-493D-BEDA-F7F9B8FE6C0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>